--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F55F1E02-C02D-4BD6-8F02-0EE454EA58F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -550,11 +549,15 @@
 5:房貸扣薪件</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>L4512可修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -888,12 +891,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="6"/>
+    <cellStyle name="一般 2 3" xfId="5"/>
+    <cellStyle name="一般 3" xfId="4"/>
+    <cellStyle name="一般 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -984,23 +987,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1036,23 +1022,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1228,11 +1197,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1576,7 +1545,9 @@
       <c r="E20" s="19">
         <v>14</v>
       </c>
-      <c r="G20" s="30"/>
+      <c r="G20" s="30" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="24">
@@ -1693,7 +1664,9 @@
       <c r="E26" s="19">
         <v>14</v>
       </c>
-      <c r="G26" s="30"/>
+      <c r="G26" s="30" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="24">
@@ -2080,7 +2053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2153,7 +2126,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E5DCF-61FB-4AAB-B3D2-916A6DD5485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9132"/>
+    <workbookView xWindow="1116" yWindow="276" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -541,23 +542,25 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>L4512可修改</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>CdCode.PerfRepayCode
 1:扣薪件
 2:特約件
 3:滯繳件
 4:人事特約件
-5:房貸扣薪件</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>L4512可修改</t>
+5:房貸扣薪件
+8:帳管費
+9:火險費</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -891,12 +894,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="5"/>
-    <cellStyle name="一般 3" xfId="4"/>
-    <cellStyle name="一般 4" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -987,6 +990,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1022,6 +1042,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1197,11 +1234,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1417,7 +1454,7 @@
       </c>
       <c r="G13" s="30"/>
     </row>
-    <row r="14" spans="1:7" ht="97.2">
+    <row r="14" spans="1:7" ht="129.6">
       <c r="A14" s="19">
         <v>6</v>
       </c>
@@ -1434,7 +1471,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1665,7 +1702,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2053,7 +2090,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2126,7 +2163,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -1,23 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A67E5DCF-61FB-4AAB-B3D2-916A6DD5485A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CFC714-9BFC-449D-8ABB-2F18C458F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1116" yWindow="276" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="jason格式紀錄欄" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -439,10 +449,6 @@
   </si>
   <si>
     <t xml:space="preserve">流程別  </t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>Acdate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
@@ -555,6 +561,10 @@
 8:帳管費
 9:火險費</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acdate</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1237,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1373,7 +1383,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E9" s="22">
         <v>8</v>
@@ -1415,7 +1425,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1471,7 +1481,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1574,7 +1584,7 @@
         <v>108</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>62</v>
@@ -1583,7 +1593,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1609,19 +1619,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E22" s="22">
         <v>8</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1642,7 +1652,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1662,7 +1672,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1682,7 +1692,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1702,7 +1712,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1770,7 +1780,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E30" s="22">
         <v>8</v>
@@ -1788,7 +1798,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E31" s="22">
         <v>8</v>
@@ -1875,7 +1885,7 @@
         <v>104</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D36" s="34" t="s">
         <v>99</v>
@@ -1885,7 +1895,7 @@
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="37" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1935,7 +1945,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E39" s="28">
         <v>8</v>
@@ -2095,7 +2105,7 @@
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2146,10 +2156,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>105</v>
@@ -2180,42 +2190,42 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88CFC714-9BFC-449D-8ABB-2F18C458F649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="jason格式紀錄欄" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -298,14 +297,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>1:ACH新光
-2:ACH他行
-3:郵局
-4:15日
-5:非15日</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>MediaKind</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -566,11 +557,16 @@
     <t>Acdate</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
+  <si>
+    <t>4:15日
+5:非15日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -904,12 +900,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="一般 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2 2 2" xfId="6"/>
+    <cellStyle name="一般 2 3" xfId="5"/>
+    <cellStyle name="一般 3" xfId="4"/>
+    <cellStyle name="一般 4" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1000,23 +996,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1052,23 +1031,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1244,11 +1206,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1268,7 +1230,7 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1296,7 +1258,7 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>18</v>
@@ -1383,7 +1345,7 @@
         <v>64</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E9" s="22">
         <v>8</v>
@@ -1413,10 +1375,10 @@
         <v>3</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>35</v>
@@ -1425,7 +1387,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1451,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="B13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>110</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>111</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>34</v>
@@ -1472,7 +1434,7 @@
         <v>38</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D14" s="19" t="s">
         <v>34</v>
@@ -1481,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="G14" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1489,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>23</v>
@@ -1507,10 +1469,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>35</v>
@@ -1526,10 +1488,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="27" t="s">
         <v>97</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>98</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>35</v>
@@ -1545,10 +1507,10 @@
         <v>10</v>
       </c>
       <c r="B18" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="21" t="s">
         <v>94</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>95</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>34</v>
@@ -1581,10 +1543,10 @@
         <v>12</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C20" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>62</v>
@@ -1593,7 +1555,7 @@
         <v>14</v>
       </c>
       <c r="G20" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1601,13 +1563,13 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C21" s="21" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E21" s="22">
         <v>20</v>
@@ -1619,19 +1581,19 @@
         <v>14</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="21" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E22" s="22">
         <v>8</v>
       </c>
       <c r="G22" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1652,7 +1614,7 @@
       </c>
       <c r="F23" s="23"/>
       <c r="G23" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1672,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="G24" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1692,7 +1654,7 @@
         <v>6</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1712,7 +1674,7 @@
         <v>14</v>
       </c>
       <c r="G26" s="30" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1780,7 +1742,7 @@
         <v>29</v>
       </c>
       <c r="D30" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E30" s="22">
         <v>8</v>
@@ -1798,7 +1760,7 @@
         <v>30</v>
       </c>
       <c r="D31" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E31" s="22">
         <v>8</v>
@@ -1882,20 +1844,20 @@
         <v>28</v>
       </c>
       <c r="B36" s="35" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D36" s="34" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E36" s="34">
         <v>300</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="37" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1945,7 +1907,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="24" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E39" s="28">
         <v>8</v>
@@ -1955,12 +1917,12 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="81">
+    <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="34">
         <v>32</v>
       </c>
       <c r="B40" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C40" s="26" t="s">
         <v>69</v>
@@ -1973,7 +1935,7 @@
       </c>
       <c r="F40" s="23"/>
       <c r="G40" s="29" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2002,20 +1964,20 @@
         <v>34</v>
       </c>
       <c r="B42" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="D42" s="32" t="s">
         <v>79</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>80</v>
       </c>
       <c r="E42" s="22"/>
       <c r="F42" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="G42" s="29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2023,19 +1985,19 @@
         <v>35</v>
       </c>
       <c r="B43" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="27" t="s">
+      <c r="D43" s="32" t="s">
         <v>84</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>85</v>
       </c>
       <c r="E43" s="22">
         <v>6</v>
       </c>
       <c r="F43" s="23" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G43" s="29"/>
     </row>
@@ -2044,20 +2006,20 @@
         <v>36</v>
       </c>
       <c r="B44" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="27" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="27" t="s">
-        <v>87</v>
-      </c>
       <c r="D44" s="32" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2065,22 +2027,22 @@
         <v>37</v>
       </c>
       <c r="B45" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="C45" s="27" t="s">
+      <c r="D45" s="32" t="s">
         <v>89</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>90</v>
       </c>
       <c r="E45" s="22">
         <v>6</v>
       </c>
       <c r="F45" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="29" t="s">
         <v>81</v>
-      </c>
-      <c r="G45" s="29" t="s">
-        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2062,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
@@ -2129,40 +2091,40 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2173,7 +2135,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2190,42 +2152,42 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -561,6 +561,14 @@
     <t>4:15日
 5:非15日</t>
     <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>findTxSeq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Acdate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1209,7 +1217,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
@@ -2063,11 +2071,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2125,6 +2133,14 @@
       </c>
       <c r="C5" s="1" t="s">
         <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -15,23 +15,14 @@
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
     <sheet name="jason格式紀錄欄" sheetId="3" r:id="rId3"/>
+    <sheet name="流程別" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="146">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -360,14 +351,6 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>EmpDeductDtl</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>entryDateRng</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">MediaDate = , AND MediaKind = , AND MediaSeq = </t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -398,10 +381,6 @@
   <si>
     <t>ErrMsg</t>
     <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>ErrMsg !, AND EntryDate &gt;= , AND EntryDate &lt;= , AND ProcCode ^i</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>FacmNo</t>
@@ -569,6 +548,53 @@
   <si>
     <t>Acdate = ,AND TitaTlrNo = ,AND TitaTxtNo =</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.15日薪：AgLevel 業務人員職等 IN ('00') 15日薪 or LIKE 'E%' 2/3階 處經理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 1非15日薪  3-三階                                1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. 薪制           制度別                            流程別      </t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 15日薪                                                  5</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>//                    2-二階                                2</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>//                    5-三階新制( else)               3</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.AgStatusCode 業務人員任用狀況碼 IN (1.在職,9.未報聘/內勤)</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ProcCode 處理說明
+員工扣薪：004 + ErrMsg(2)
+01:成功
+16:扣款失敗
+17:扣款不足</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpDeductDtl</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>entryDateRng</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate &gt;= , AND EntryDate &lt;= , AND ProcCode ^i</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -778,7 +804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -794,10 +820,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -809,9 +835,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -824,9 +847,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -848,20 +868,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1217,28 +1225,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.109375" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.109375" style="14" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1248,78 +1256,78 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7" ht="48.6">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="35"/>
+      <c r="C3" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="40"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1338,718 +1346,714 @@
       <c r="F8" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="19">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E9" s="20">
+        <v>8</v>
+      </c>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E10" s="20">
+        <v>7</v>
+      </c>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="145.80000000000001">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="17">
+        <v>2</v>
+      </c>
+      <c r="G11" s="25" t="s">
         <v>128</v>
       </c>
-      <c r="E9" s="22">
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="20">
+        <v>6</v>
+      </c>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="20">
+        <v>1</v>
+      </c>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" ht="129.6">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="20">
+        <v>1</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="17">
+        <v>12</v>
+      </c>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17">
         <v>8</v>
       </c>
-      <c r="G9" s="30"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19">
+      <c r="B16" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="17">
+        <v>3</v>
+      </c>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="17">
+        <v>6</v>
+      </c>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="17">
+        <v>10</v>
+      </c>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="17">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="17">
+        <v>14</v>
+      </c>
+      <c r="G20" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="81">
+      <c r="A21" s="17">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E21" s="20">
+        <v>20</v>
+      </c>
+      <c r="G21" s="25" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="17">
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E22" s="20">
+        <v>8</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="17">
+        <v>6</v>
+      </c>
+      <c r="G23" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="17">
+        <v>8</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="17">
+        <v>6</v>
+      </c>
+      <c r="G25" s="24" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="17">
+        <v>14</v>
+      </c>
+      <c r="G26" s="24" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="17">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E27" s="17">
         <v>2</v>
       </c>
-      <c r="B10" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C10" s="21" t="s">
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="17">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C28" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="17">
+        <v>6</v>
+      </c>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="17">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="17">
+        <v>6</v>
+      </c>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="17">
         <v>22</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="B30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="20">
+        <v>8</v>
+      </c>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="17">
+        <v>23</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="20">
+        <v>8</v>
+      </c>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="17">
+        <v>24</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="17">
+        <v>2</v>
+      </c>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" s="17">
+        <v>25</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="17">
+        <v>14</v>
+      </c>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="17">
+        <v>26</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E34" s="17">
+        <v>14</v>
+      </c>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" s="17">
+        <v>27</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="17">
+        <v>14</v>
+      </c>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" ht="81">
+      <c r="A36" s="28">
+        <v>28</v>
+      </c>
+      <c r="B36" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="D36" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="28">
+        <v>300</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="31" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" s="17">
+        <v>29</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="17">
+        <v>14</v>
+      </c>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="28">
+        <v>30</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D38" s="20" t="s">
         <v>62</v>
       </c>
-      <c r="E10" s="22">
-        <v>7</v>
-      </c>
-      <c r="G10" s="30"/>
-    </row>
-    <row r="11" spans="1:7" ht="145.80000000000001">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="24" t="s">
+      <c r="E38" s="17">
+        <v>14</v>
+      </c>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" s="17">
+        <v>31</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E39" s="22">
+        <v>8</v>
+      </c>
+      <c r="G39" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="32.4">
+      <c r="A40" s="28">
+        <v>32</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E40" s="22">
+        <v>1</v>
+      </c>
+      <c r="G40" s="23" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="17">
+        <v>33</v>
+      </c>
+      <c r="B41" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="E41" s="22">
+        <v>6</v>
+      </c>
+      <c r="G41" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="28">
+        <v>34</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D42" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="17">
         <v>35</v>
       </c>
-      <c r="E11" s="19">
-        <v>2</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20" t="s">
+      <c r="B43" s="26" t="s">
+        <v>82</v>
+      </c>
+      <c r="C43" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="E43" s="20">
+        <v>6</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="23"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="28">
+        <v>36</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D44" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="17">
         <v>37</v>
       </c>
-      <c r="C12" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="D12" s="19" t="s">
-        <v>62</v>
-      </c>
-      <c r="E12" s="22">
+      <c r="B45" s="26" t="s">
+        <v>87</v>
+      </c>
+      <c r="C45" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D45" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" s="20">
         <v>6</v>
       </c>
-      <c r="G12" s="30"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="22">
-        <v>1</v>
-      </c>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="1:7" ht="129.6">
-      <c r="A14" s="19">
-        <v>6</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="22">
-        <v>1</v>
-      </c>
-      <c r="G14" s="31" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="19">
-        <v>12</v>
-      </c>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="24">
-        <v>8</v>
-      </c>
-      <c r="B16" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="24">
-        <v>3</v>
-      </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="24">
-        <v>9</v>
-      </c>
-      <c r="B17" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>97</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="E17" s="24">
-        <v>3</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="30"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="24">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E18" s="19">
-        <v>6</v>
-      </c>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="24">
-        <v>11</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E19" s="19">
-        <v>10</v>
-      </c>
-      <c r="G19" s="30"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="24">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C20" s="21" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="19">
-        <v>14</v>
-      </c>
-      <c r="G20" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="24">
-        <v>13</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="22">
-        <v>20</v>
-      </c>
-      <c r="G21" s="30"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="24">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="22">
-        <v>8</v>
-      </c>
-      <c r="G22" s="30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="24">
-        <v>15</v>
-      </c>
-      <c r="B23" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="24">
-        <v>6</v>
-      </c>
-      <c r="F23" s="23"/>
-      <c r="G23" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="24">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E24" s="19">
-        <v>8</v>
-      </c>
-      <c r="G24" s="30" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="24">
-        <v>17</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E25" s="19">
-        <v>6</v>
-      </c>
-      <c r="G25" s="30" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="24">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="19">
-        <v>14</v>
-      </c>
-      <c r="G26" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="24">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27" s="19">
-        <v>2</v>
-      </c>
-      <c r="G27" s="30"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="24">
-        <v>20</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="21" t="s">
-        <v>57</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="19">
-        <v>6</v>
-      </c>
-      <c r="G28" s="30"/>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="24">
-        <v>21</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E29" s="19">
-        <v>6</v>
-      </c>
-      <c r="G29" s="30"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="24">
-        <v>22</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E30" s="22">
-        <v>8</v>
-      </c>
-      <c r="G30" s="30"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="24">
-        <v>23</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>30</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="22">
-        <v>8</v>
-      </c>
-      <c r="G31" s="30"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="24">
-        <v>24</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="19">
-        <v>2</v>
-      </c>
-      <c r="G32" s="30"/>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="24">
-        <v>25</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="C33" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="D33" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="19">
-        <v>14</v>
-      </c>
-      <c r="G33" s="30"/>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="24">
-        <v>26</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C34" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="D34" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="19">
-        <v>14</v>
-      </c>
-      <c r="G34" s="30"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="24">
-        <v>27</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C35" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="D35" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E35" s="19">
-        <v>14</v>
-      </c>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" ht="81">
-      <c r="A36" s="34">
-        <v>28</v>
-      </c>
-      <c r="B36" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>116</v>
-      </c>
-      <c r="D36" s="34" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="34">
-        <v>300</v>
-      </c>
-      <c r="F36" s="33"/>
-      <c r="G36" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="24">
-        <v>29</v>
-      </c>
-      <c r="B37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="D37" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="E37" s="19">
-        <v>14</v>
-      </c>
-      <c r="G37" s="30"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="34">
-        <v>30</v>
-      </c>
-      <c r="B38" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="C38" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D38" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="E38" s="19">
-        <v>14</v>
-      </c>
-      <c r="G38" s="30"/>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" s="24">
-        <v>31</v>
-      </c>
-      <c r="B39" s="25" t="s">
-        <v>66</v>
-      </c>
-      <c r="C39" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="28">
-        <v>8</v>
-      </c>
-      <c r="F39" s="23"/>
-      <c r="G39" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="32.4">
-      <c r="A40" s="34">
-        <v>32</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>73</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E40" s="28">
-        <v>1</v>
-      </c>
-      <c r="F40" s="23"/>
-      <c r="G40" s="29" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" s="24">
-        <v>33</v>
-      </c>
-      <c r="B41" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>68</v>
-      </c>
-      <c r="E41" s="28">
-        <v>6</v>
-      </c>
-      <c r="F41" s="23"/>
-      <c r="G41" s="27" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" s="34">
-        <v>34</v>
-      </c>
-      <c r="B42" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C42" s="27" t="s">
-        <v>78</v>
-      </c>
-      <c r="D42" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E42" s="22"/>
-      <c r="F42" s="23" t="s">
+      <c r="F45" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="24">
-        <v>35</v>
-      </c>
-      <c r="B43" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" s="27" t="s">
-        <v>83</v>
-      </c>
-      <c r="D43" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="E43" s="22">
-        <v>6</v>
-      </c>
-      <c r="F43" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="34">
-        <v>36</v>
-      </c>
-      <c r="B44" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C44" s="27" t="s">
-        <v>86</v>
-      </c>
-      <c r="D44" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="E44" s="22"/>
-      <c r="F44" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G44" s="29" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" s="24">
-        <v>37</v>
-      </c>
-      <c r="B45" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C45" s="27" t="s">
-        <v>88</v>
-      </c>
-      <c r="D45" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="E45" s="22">
-        <v>6</v>
-      </c>
-      <c r="F45" s="23" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="29" t="s">
+      <c r="G45" s="23" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2075,7 +2079,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2102,45 +2106,45 @@
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>100</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2168,42 +2172,42 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2211,4 +2215,59 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="118" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098DAC89-51A4-4E2D-95FF-385800F635DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -311,10 +312,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -596,12 +593,15 @@
     <t>EntryDate &gt;= , AND EntryDate &lt;= , AND ProcCode ^i</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="14">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -916,12 +916,12 @@
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
-    <cellStyle name="一般 2 2 2" xfId="6"/>
-    <cellStyle name="一般 2 3" xfId="5"/>
-    <cellStyle name="一般 3" xfId="4"/>
-    <cellStyle name="一般 4" xfId="3"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2 2 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="一般 2 3" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="一般 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="一般 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -937,9 +937,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -977,9 +977,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1014,7 +1014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1049,7 +1049,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1222,14 +1222,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1240,13 +1240,13 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1255,7 +1255,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
@@ -1268,13 +1268,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6">
+    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="11" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1283,7 +1283,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
@@ -1294,7 +1294,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1305,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1316,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1327,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>1</v>
       </c>
@@ -1361,14 +1361,14 @@
         <v>64</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E9" s="20">
         <v>8</v>
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>2</v>
       </c>
@@ -1386,15 +1386,15 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" ht="145.80000000000001">
+    <row r="11" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="17" t="s">
         <v>35</v>
@@ -1403,10 +1403,10 @@
         <v>2</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>4</v>
       </c>
@@ -1424,15 +1424,15 @@
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>106</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="D13" s="17" t="s">
         <v>34</v>
@@ -1442,7 +1442,7 @@
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" ht="129.6">
+    <row r="14" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>6</v>
       </c>
@@ -1459,10 +1459,10 @@
         <v>1</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>7</v>
       </c>
@@ -1480,15 +1480,15 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D16" s="17" t="s">
         <v>35</v>
@@ -1498,15 +1498,15 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>94</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>35</v>
@@ -1516,15 +1516,15 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>91</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>92</v>
       </c>
       <c r="D18" s="20" t="s">
         <v>34</v>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>11</v>
       </c>
@@ -1552,15 +1552,15 @@
       </c>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D20" s="20" t="s">
         <v>62</v>
@@ -1569,50 +1569,50 @@
         <v>14</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="81">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E21" s="20">
         <v>20</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E22" s="20">
         <v>8</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>15</v>
       </c>
@@ -1629,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>16</v>
       </c>
@@ -1649,10 +1649,10 @@
         <v>8</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>17</v>
       </c>
@@ -1669,10 +1669,10 @@
         <v>6</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>18</v>
       </c>
@@ -1689,10 +1689,10 @@
         <v>14</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>19</v>
       </c>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>20</v>
       </c>
@@ -1728,7 +1728,7 @@
       </c>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>21</v>
       </c>
@@ -1746,7 +1746,7 @@
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>22</v>
       </c>
@@ -1757,14 +1757,14 @@
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E30" s="20">
         <v>8</v>
       </c>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>23</v>
       </c>
@@ -1775,14 +1775,14 @@
         <v>30</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E31" s="20">
         <v>8</v>
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>24</v>
       </c>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>25</v>
       </c>
@@ -1818,7 +1818,7 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>26</v>
       </c>
@@ -1836,7 +1836,7 @@
       </c>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>27</v>
       </c>
@@ -1854,28 +1854,28 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="81">
+    <row r="36" spans="1:7" ht="81" x14ac:dyDescent="0.3">
       <c r="A36" s="28">
         <v>28</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E36" s="28">
         <v>300</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="31" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>29</v>
       </c>
@@ -1893,7 +1893,7 @@
       </c>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="28">
         <v>30</v>
       </c>
@@ -1911,7 +1911,7 @@
       </c>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>31</v>
       </c>
@@ -1922,7 +1922,7 @@
         <v>67</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E39" s="22">
         <v>8</v>
@@ -1931,7 +1931,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="32.4">
+    <row r="40" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A40" s="28">
         <v>32</v>
       </c>
@@ -1948,10 +1948,10 @@
         <v>1</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A41" s="17">
         <v>33</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A42" s="28">
         <v>34</v>
       </c>
@@ -1982,79 +1982,79 @@
         <v>78</v>
       </c>
       <c r="D42" s="26" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G42" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+    </row>
+    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>35</v>
       </c>
       <c r="B43" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="D43" s="26" t="s">
         <v>83</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>84</v>
       </c>
       <c r="E43" s="20">
         <v>6</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A44" s="28">
         <v>36</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>86</v>
-      </c>
       <c r="D44" s="26" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+    </row>
+    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A45" s="17">
         <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="26" t="s">
         <v>88</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>89</v>
       </c>
       <c r="E45" s="20">
         <v>6</v>
       </c>
       <c r="F45" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="G45" s="23" t="s">
         <v>80</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2074,15 +2074,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="80" style="1" bestFit="1" customWidth="1"/>
@@ -2090,7 +2090,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,50 +2101,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>145</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>133</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2155,14 +2155,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
@@ -2170,44 +2170,44 @@
     <col min="5" max="5" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>114</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>115</v>
       </c>
-      <c r="B3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>117</v>
-      </c>
-      <c r="B4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>122</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>116</v>
-      </c>
-      <c r="B6" t="s">
-        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2218,52 +2218,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="118" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/EmpDeductDtl.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{098DAC89-51A4-4E2D-95FF-385800F635DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34BF621-D379-4710-B0CE-036C3101F482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t xml:space="preserve">計息迄日  </t>
   </si>
   <si>
-    <t xml:space="preserve">累溢短收  </t>
-  </si>
-  <si>
     <t xml:space="preserve">當期利息  </t>
   </si>
   <si>
@@ -596,12 +593,16 @@
   <si>
     <t>TIMESTAMP</t>
   </si>
+  <si>
+    <t xml:space="preserve">累溢短收  </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1225,11 +1226,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1240,13 +1241,13 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>19</v>
@@ -1255,7 +1256,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="32"/>
       <c r="B2" s="33"/>
       <c r="C2" s="8" t="s">
@@ -1268,13 +1269,13 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7" ht="48.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="48.6">
       <c r="A3" s="35" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="35"/>
       <c r="C3" s="11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="12" t="s">
         <v>18</v>
@@ -1283,7 +1284,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="32" t="s">
         <v>11</v>
       </c>
@@ -1294,7 +1295,7 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
@@ -1305,7 +1306,7 @@
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="32" t="s">
         <v>6</v>
       </c>
@@ -1316,7 +1317,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="32" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1328,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1350,403 +1351,403 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="17">
         <v>1</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E9" s="20">
         <v>8</v>
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="17">
         <v>2</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C10" s="19" t="s">
         <v>22</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E10" s="20">
         <v>7</v>
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" ht="145.80000000000001" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" ht="145.80000000000001">
       <c r="A11" s="17">
         <v>3</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E11" s="17">
         <v>2</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="17">
         <v>4</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E12" s="20">
         <v>6</v>
       </c>
       <c r="G12" s="24"/>
     </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7">
       <c r="A13" s="17">
         <v>5</v>
       </c>
       <c r="B13" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="19" t="s">
         <v>105</v>
       </c>
-      <c r="C13" s="19" t="s">
-        <v>106</v>
-      </c>
       <c r="D13" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E13" s="20">
         <v>1</v>
       </c>
       <c r="G13" s="24"/>
     </row>
-    <row r="14" spans="1:7" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="129.6">
       <c r="A14" s="17">
         <v>6</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="20">
         <v>1</v>
       </c>
       <c r="G14" s="25" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="17">
         <v>7</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>23</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E15" s="17">
         <v>12</v>
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="17">
         <v>8</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E16" s="17">
         <v>3</v>
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="17">
         <v>9</v>
       </c>
       <c r="B17" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C17" s="19" t="s">
-        <v>94</v>
-      </c>
       <c r="D17" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17" s="17">
         <v>3</v>
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="17">
         <v>10</v>
       </c>
       <c r="B18" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="C18" s="19" t="s">
-        <v>91</v>
-      </c>
       <c r="D18" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E18" s="17">
         <v>6</v>
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="17">
         <v>11</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="19" t="s">
         <v>24</v>
       </c>
       <c r="D19" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="17">
         <v>10</v>
       </c>
       <c r="G19" s="24"/>
     </row>
-    <row r="20" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7">
       <c r="A20" s="17">
         <v>12</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D20" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E20" s="17">
         <v>14</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="81">
       <c r="A21" s="17">
         <v>13</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C21" s="19" t="s">
         <v>25</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E21" s="20">
         <v>20</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="17">
         <v>14</v>
       </c>
       <c r="B22" s="18" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C22" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E22" s="20">
         <v>8</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="17">
         <v>15</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D23" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E23" s="17">
         <v>6</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="17">
         <v>16</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C24" s="19" t="s">
         <v>27</v>
       </c>
       <c r="D24" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E24" s="17">
         <v>8</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="17">
         <v>17</v>
       </c>
       <c r="B25" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C25" s="19" t="s">
         <v>28</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E25" s="17">
         <v>6</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="17">
         <v>18</v>
       </c>
       <c r="B26" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="17">
         <v>14</v>
       </c>
-      <c r="G26" s="24" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="G26" s="25" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="17">
         <v>19</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E27" s="17">
         <v>2</v>
       </c>
       <c r="G27" s="24"/>
     </row>
-    <row r="28" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7">
       <c r="A28" s="17">
         <v>20</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D28" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E28" s="17">
         <v>6</v>
       </c>
       <c r="G28" s="24"/>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="17">
         <v>21</v>
       </c>
       <c r="B29" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D29" s="20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="17">
         <v>6</v>
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="17">
         <v>22</v>
       </c>
@@ -1757,14 +1758,14 @@
         <v>29</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E30" s="20">
         <v>8</v>
       </c>
       <c r="G30" s="24"/>
     </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="17">
         <v>23</v>
       </c>
@@ -1775,286 +1776,286 @@
         <v>30</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E31" s="20">
         <v>8</v>
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="17">
         <v>24</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C32" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E32" s="17">
         <v>2</v>
       </c>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="17">
         <v>25</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C33" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D33" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E33" s="17">
         <v>14</v>
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="17">
         <v>26</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D34" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E34" s="17">
         <v>14</v>
       </c>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="17">
         <v>27</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>31</v>
+        <v>145</v>
       </c>
       <c r="D35" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E35" s="17">
         <v>14</v>
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="81" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="81">
       <c r="A36" s="28">
         <v>28</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D36" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E36" s="28">
         <v>300</v>
       </c>
       <c r="F36" s="27"/>
       <c r="G36" s="31" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="17">
         <v>29</v>
       </c>
       <c r="B37" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D37" s="20" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E37" s="17">
         <v>14</v>
       </c>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="28">
         <v>30</v>
       </c>
       <c r="B38" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C38" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D38" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E38" s="17">
         <v>14</v>
       </c>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="17">
         <v>31</v>
       </c>
       <c r="B39" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="D39" s="17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E39" s="22">
         <v>8</v>
       </c>
       <c r="G39" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="32.4">
       <c r="A40" s="28">
         <v>32</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C40" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E40" s="22">
         <v>1</v>
       </c>
       <c r="G40" s="23" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="17">
         <v>33</v>
       </c>
       <c r="B41" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="19" t="s">
-        <v>71</v>
-      </c>
       <c r="D41" s="17" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E41" s="22">
         <v>6</v>
       </c>
       <c r="G41" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="28">
         <v>34</v>
       </c>
       <c r="B42" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C42" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="C42" s="19" t="s">
-        <v>78</v>
-      </c>
       <c r="D42" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G42" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G42" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="17">
         <v>35</v>
       </c>
       <c r="B43" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="D43" s="26" t="s">
         <v>82</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>83</v>
       </c>
       <c r="E43" s="20">
         <v>6</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G43" s="23"/>
     </row>
-    <row r="44" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7">
       <c r="A44" s="28">
         <v>36</v>
       </c>
       <c r="B44" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="C44" s="19" t="s">
-        <v>85</v>
-      </c>
       <c r="D44" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E44" s="20"/>
       <c r="F44" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" s="23" t="s">
         <v>79</v>
       </c>
-      <c r="G44" s="23" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="17">
         <v>37</v>
       </c>
       <c r="B45" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="26" t="s">
         <v>87</v>
-      </c>
-      <c r="D45" s="26" t="s">
-        <v>88</v>
       </c>
       <c r="E45" s="20">
         <v>6</v>
       </c>
       <c r="F45" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="G45" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="G45" s="23" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -2082,7 +2083,7 @@
       <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="80" style="1" bestFit="1" customWidth="1"/>
@@ -2090,7 +2091,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2101,50 +2102,50 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>144</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2162,7 +2163,7 @@
       <selection activeCell="A2" sqref="A2:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
@@ -2170,44 +2171,44 @@
     <col min="5" max="5" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
         <v>113</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>114</v>
       </c>
-      <c r="B3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
         <v>121</v>
-      </c>
-      <c r="B5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2225,45 +2226,45 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="118" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>139</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>
